--- a/logs/table_design.xlsx
+++ b/logs/table_design.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="4780" windowWidth="14400" windowHeight="9660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>instanceID(launch time)</t>
   </si>
@@ -72,13 +73,16 @@
   </si>
   <si>
     <t>wallTime</t>
+  </si>
+  <si>
+    <t>experimentID(from local)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,6 +95,22 @@
       <color rgb="FF454545"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -116,15 +136,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,22 +436,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.33203125" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="26.5" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="26.5" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -423,61 +460,76 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>